--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2942.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2942.xlsx
@@ -354,7 +354,7 @@
         <v>2.120366194940802</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.633391094522401</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2942.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2942.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9960425294206348</v>
+        <v>1.357105851173401</v>
       </c>
       <c r="B1">
-        <v>2.120366194940802</v>
+        <v>1.230889797210693</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.218952417373657</v>
       </c>
       <c r="D1">
-        <v>2.633391094522401</v>
+        <v>2.875737190246582</v>
       </c>
       <c r="E1">
-        <v>1.403554419604654</v>
+        <v>0.907846987247467</v>
       </c>
     </row>
   </sheetData>
